--- a/run/output/iecorrect/iecorrect-simple-num-id.xlsx
+++ b/run/output/iecorrect/iecorrect-simple-num-id.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\iefieldkit\run\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\iefieldkit\run\output\iecorrect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C3EE0C-F583-4B85-8528-B30FB65058F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D30D8-28C6-498D-B48D-E44A2BCA978D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>strvar</t>
   </si>
   <si>
-    <t>idvalue</t>
-  </si>
-  <si>
     <t>valuecurrent</t>
   </si>
   <si>
@@ -89,6 +86,12 @@
   </si>
   <si>
     <t>varname</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>n_obs</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -464,46 +469,46 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -516,33 +521,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>184</v>
@@ -553,7 +560,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>74</v>
@@ -573,7 +580,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -583,36 +590,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -622,16 +629,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -645,31 +652,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/run/output/iecorrect/iecorrect-simple-num-id.xlsx
+++ b/run/output/iecorrect/iecorrect-simple-num-id.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\iefieldkit\run\output\iecorrect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D30D8-28C6-498D-B48D-E44A2BCA978D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB76CEA-44CE-468E-80EE-497F2B14C07A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>strvar</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>n_obs</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -457,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -491,6 +494,9 @@
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
@@ -522,7 +528,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -550,6 +556,9 @@
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
       <c r="C2">
         <v>184</v>
@@ -654,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/run/output/iecorrect/iecorrect-simple-num-id.xlsx
+++ b/run/output/iecorrect/iecorrect-simple-num-id.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\iefieldkit\run\output\iecorrect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB76CEA-44CE-468E-80EE-497F2B14C07A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E8C9E8-E9F1-492F-8C15-456BBF834BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="other" sheetId="3" r:id="rId3"/>
     <sheet name="drop" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>strvar</t>
   </si>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -513,6 +513,9 @@
       <c r="B3">
         <v>29</v>
       </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
@@ -528,7 +531,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -573,6 +576,9 @@
       </c>
       <c r="B3">
         <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -663,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/run/output/iecorrect/iecorrect-simple-num-id.xlsx
+++ b/run/output/iecorrect/iecorrect-simple-num-id.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E8C9E8-E9F1-492F-8C15-456BBF834BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="other" sheetId="3" r:id="rId3"/>
     <sheet name="drop" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1545" uniqueCount="34">
   <si>
     <t>strvar</t>
   </si>
@@ -95,12 +95,42 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n_changes</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>date_last_changed</t>
+  </si>
+  <si>
+    <t>11 Dec 2022</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -141,9 +171,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -313,7 +343,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -337,9 +367,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -363,7 +393,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -398,7 +428,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -416,7 +446,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -441,7 +471,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -457,8 +487,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -466,11 +496,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="15.28515625" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -489,35 +519,63 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>29</v>
+      <c r="B3" t="s">
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -527,8 +585,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -536,7 +594,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -555,32 +613,62 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2">
-        <v>184</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>74</v>
+      <c r="B3" t="s">
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -591,7 +679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -600,7 +688,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -642,7 +730,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -666,16 +754,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -688,15 +776,25 @@
       <c r="D1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2">
-        <v>1</v>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/run/output/iecorrect/iecorrect-simple-num-id.xlsx
+++ b/run/output/iecorrect/iecorrect-simple-num-id.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1545" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2907" uniqueCount="35">
   <si>
     <t>strvar</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 Jan 2023</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -572,7 +575,7 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -640,7 +643,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -666,7 +669,7 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -794,7 +797,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
